--- a/U2_frommeltová_hnilicová/Testování_casu.xlsx
+++ b/U2_frommeltová_hnilicová/Testování_casu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucka\CVUT_GEODEZIE\MGR\SEMESTR3\Algoritmy v digitální kartografii\uloha2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucka\GitHub\ADK_ulohy\ADKI\U2_frommeltová_hnilicová\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD7DCA6-DE33-401E-BD58-206DC37CA066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A7FD89-2BEF-42C0-A861-BC803658843A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{65620053-BD06-4219-8D03-178DD9E4A074}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21684" windowHeight="13176" xr2:uid="{65620053-BD06-4219-8D03-178DD9E4A074}"/>
   </bookViews>
   <sheets>
     <sheet name="Jarvis scan" sheetId="1" r:id="rId1"/>
@@ -557,15 +557,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,21 +564,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,6 +584,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -616,6 +601,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5049,8 +5049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E588A2A1-8776-4AF2-AAE0-172C2D27284F}">
   <dimension ref="D1:AB80"/>
   <sheetViews>
-    <sheetView topLeftCell="N10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q80" sqref="Q80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5075,64 +5075,64 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="4:28" x14ac:dyDescent="0.3">
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="30" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="4:28" x14ac:dyDescent="0.3">
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="36">
+      <c r="E4" s="26"/>
+      <c r="F4" s="31">
         <v>1000</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="34"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="26"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -5143,10 +5143,10 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="35"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="12">
         <v>1</v>
       </c>
@@ -5177,11 +5177,11 @@
       <c r="O5" s="3">
         <v>10</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="35"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -5227,7 +5227,7 @@
       </c>
     </row>
     <row r="7" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="20"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="15" t="s">
         <v>2</v>
       </c>
@@ -5266,12 +5266,12 @@
         <v>6.3</v>
       </c>
       <c r="Q7" s="17">
-        <f>VAR(F7:O7)</f>
+        <f t="shared" ref="Q7:Q8" si="1">VAR(F7:O7)</f>
         <v>0.23333333333333334</v>
       </c>
     </row>
     <row r="8" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="21"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="15" t="s">
         <v>3</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>2.8</v>
       </c>
       <c r="Q8" s="17">
-        <f>VAR(F8:O8)</f>
+        <f t="shared" si="1"/>
         <v>0.39999999999999936</v>
       </c>
     </row>
@@ -5319,70 +5319,70 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="24"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="21"/>
     </row>
     <row r="11" spans="4:28" x14ac:dyDescent="0.3">
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27" t="s">
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30" t="s">
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="33" t="s">
+      <c r="Q11" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="4:28" x14ac:dyDescent="0.3">
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="36">
+      <c r="E12" s="26"/>
+      <c r="F12" s="31">
         <v>2000</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="34"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="26"/>
     </row>
     <row r="13" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="12">
         <v>1</v>
       </c>
@@ -5413,11 +5413,11 @@
       <c r="O13" s="3">
         <v>10</v>
       </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="35"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="27"/>
     </row>
     <row r="14" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -5458,12 +5458,12 @@
         <v>8</v>
       </c>
       <c r="Q14" s="17">
-        <f>VAR(F14:O14)</f>
-        <v>0.44444444444444442</v>
+        <f t="shared" ref="Q14:Q16" si="2">SQRT(_xlfn.VAR.P(F14:O14))</f>
+        <v>0.63245553203367588</v>
       </c>
     </row>
     <row r="15" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="20"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="15" t="s">
         <v>2</v>
       </c>
@@ -5498,16 +5498,16 @@
         <v>17</v>
       </c>
       <c r="P15" s="18">
-        <f t="shared" ref="P15:P16" si="1">AVERAGE(F15:O15)</f>
+        <f t="shared" ref="P15:P16" si="3">AVERAGE(F15:O15)</f>
         <v>15.8</v>
       </c>
       <c r="Q15" s="17">
-        <f t="shared" ref="Q15:Q16" si="2">VAR(F15:O15)</f>
-        <v>1.5111111111111108</v>
+        <f t="shared" si="2"/>
+        <v>1.16619037896906</v>
       </c>
     </row>
     <row r="16" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="21"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="15" t="s">
         <v>3</v>
       </c>
@@ -5542,80 +5542,80 @@
         <v>8</v>
       </c>
       <c r="P16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q16" s="17">
         <f t="shared" si="2"/>
-        <v>1.1111111111111112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="24"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21"/>
     </row>
     <row r="19" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="30" t="s">
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q19" s="33" t="s">
+      <c r="Q19" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="36">
+      <c r="E20" s="26"/>
+      <c r="F20" s="31">
         <v>5000</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="34"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="26"/>
     </row>
     <row r="21" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="12">
         <v>1</v>
       </c>
@@ -5646,11 +5646,11 @@
       <c r="O21" s="3">
         <v>10</v>
       </c>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="35"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="15" t="s">
@@ -5691,12 +5691,12 @@
         <v>19.100000000000001</v>
       </c>
       <c r="Q22" s="17">
-        <f>VAR(F22:O22)</f>
-        <v>2.1</v>
+        <f t="shared" ref="Q22:Q24" si="4">SQRT(_xlfn.VAR.P(F22:O22))</f>
+        <v>1.374772708486752</v>
       </c>
     </row>
     <row r="23" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="20"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="15" t="s">
         <v>2</v>
       </c>
@@ -5731,16 +5731,16 @@
         <v>73</v>
       </c>
       <c r="P23" s="18">
-        <f t="shared" ref="P23:P24" si="3">AVERAGE(F23:O23)</f>
+        <f t="shared" ref="P23:P24" si="5">AVERAGE(F23:O23)</f>
         <v>77</v>
       </c>
       <c r="Q23" s="17">
-        <f t="shared" ref="Q23:Q24" si="4">VAR(F23:O23)</f>
-        <v>132</v>
+        <f t="shared" si="4"/>
+        <v>10.89954127475097</v>
       </c>
     </row>
     <row r="24" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="21"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="15" t="s">
         <v>3</v>
       </c>
@@ -5775,80 +5775,80 @@
         <v>12</v>
       </c>
       <c r="P24" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.100000000000001</v>
       </c>
       <c r="Q24" s="17">
         <f t="shared" si="4"/>
-        <v>7.211111111111121</v>
+        <v>2.5475478405713994</v>
       </c>
     </row>
     <row r="25" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="24"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
     </row>
     <row r="27" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="27" t="s">
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30" t="s">
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q27" s="33" t="s">
+      <c r="Q27" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="36">
+      <c r="E28" s="26"/>
+      <c r="F28" s="31">
         <v>10000</v>
       </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="34"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="26"/>
     </row>
     <row r="29" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="35"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="12">
         <v>1</v>
       </c>
@@ -5879,8 +5879,8 @@
       <c r="O29" s="3">
         <v>10</v>
       </c>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="35"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="27"/>
       <c r="S29" t="s">
         <v>12</v>
       </c>
@@ -5895,7 +5895,7 @@
       </c>
     </row>
     <row r="30" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="15" t="s">
@@ -5936,8 +5936,8 @@
         <v>38.9</v>
       </c>
       <c r="Q30" s="17">
-        <f>VAR(F30:O30)</f>
-        <v>2.9888888888888889</v>
+        <f t="shared" ref="Q30:Q32" si="6">SQRT(_xlfn.VAR.P(F30:O30))</f>
+        <v>1.6401219466856725</v>
       </c>
       <c r="S30">
         <v>1000</v>
@@ -5953,7 +5953,7 @@
       </c>
     </row>
     <row r="31" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="20"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="15" t="s">
         <v>2</v>
       </c>
@@ -5988,12 +5988,12 @@
         <v>183</v>
       </c>
       <c r="P31" s="18">
-        <f t="shared" ref="P31:P32" si="5">AVERAGE(F31:O31)</f>
+        <f t="shared" ref="P31:P32" si="7">AVERAGE(F31:O31)</f>
         <v>181.7</v>
       </c>
       <c r="Q31" s="17">
-        <f t="shared" ref="Q31:Q32" si="6">VAR(F31:O31)</f>
-        <v>4.0111111111111102</v>
+        <f t="shared" si="6"/>
+        <v>1.9</v>
       </c>
       <c r="S31">
         <v>2000</v>
@@ -6009,7 +6009,7 @@
       </c>
     </row>
     <row r="32" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="21"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="15" t="s">
         <v>3</v>
       </c>
@@ -6044,12 +6044,12 @@
         <v>40</v>
       </c>
       <c r="P32" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>36.9</v>
       </c>
       <c r="Q32" s="17">
         <f t="shared" si="6"/>
-        <v>24.32222222222218</v>
+        <v>4.6786750261158341</v>
       </c>
       <c r="S32">
         <v>5000</v>
@@ -6079,22 +6079,22 @@
       </c>
     </row>
     <row r="34" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="24"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="21"/>
       <c r="S34">
         <v>20000</v>
       </c>
@@ -6109,24 +6109,24 @@
       </c>
     </row>
     <row r="35" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27" t="s">
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="30" t="s">
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q35" s="33" t="s">
+      <c r="Q35" s="25" t="s">
         <v>9</v>
       </c>
       <c r="S35">
@@ -6143,24 +6143,24 @@
       </c>
     </row>
     <row r="36" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="36">
+      <c r="E36" s="26"/>
+      <c r="F36" s="31">
         <v>20000</v>
       </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="34"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="26"/>
       <c r="S36">
         <v>100000</v>
       </c>
@@ -6175,10 +6175,10 @@
       </c>
     </row>
     <row r="37" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="35"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="12">
         <v>1</v>
       </c>
@@ -6209,8 +6209,8 @@
       <c r="O37" s="3">
         <v>10</v>
       </c>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="35"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="27"/>
       <c r="S37">
         <v>200000</v>
       </c>
@@ -6225,7 +6225,7 @@
       </c>
     </row>
     <row r="38" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="15" t="s">
@@ -6266,8 +6266,8 @@
         <v>75.900000000000006</v>
       </c>
       <c r="Q38" s="17">
-        <f>VAR(F38:O38)</f>
-        <v>10.544444444444446</v>
+        <f t="shared" ref="Q38:Q40" si="8">SQRT(_xlfn.VAR.P(F38:O38))</f>
+        <v>3.080584360149873</v>
       </c>
       <c r="S38">
         <v>500000</v>
@@ -6283,7 +6283,7 @@
       </c>
     </row>
     <row r="39" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="20"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="15" t="s">
         <v>2</v>
       </c>
@@ -6318,12 +6318,12 @@
         <v>461</v>
       </c>
       <c r="P39" s="18">
-        <f t="shared" ref="P39:P40" si="7">AVERAGE(F39:O39)</f>
+        <f t="shared" ref="P39:P40" si="9">AVERAGE(F39:O39)</f>
         <v>461.6</v>
       </c>
       <c r="Q39" s="17">
-        <f t="shared" ref="Q39:Q40" si="8">VAR(F39:O39)</f>
-        <v>23.822222222222219</v>
+        <f t="shared" si="8"/>
+        <v>4.6303347611160897</v>
       </c>
       <c r="S39">
         <v>1000000</v>
@@ -6339,7 +6339,7 @@
       </c>
     </row>
     <row r="40" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D40" s="21"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="15" t="s">
         <v>3</v>
       </c>
@@ -6374,80 +6374,80 @@
         <v>88</v>
       </c>
       <c r="P40" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>91.4</v>
       </c>
       <c r="Q40" s="17">
         <f t="shared" si="8"/>
-        <v>228.0444444444438</v>
+        <v>14.326199775236978</v>
       </c>
     </row>
     <row r="41" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="24"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="21"/>
     </row>
     <row r="43" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27" t="s">
+      <c r="D43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="30" t="s">
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="33" t="s">
+      <c r="Q43" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="36">
+      <c r="E44" s="26"/>
+      <c r="F44" s="31">
         <v>50000</v>
       </c>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="34"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="26"/>
     </row>
     <row r="45" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="35"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="12">
         <v>1</v>
       </c>
@@ -6478,11 +6478,11 @@
       <c r="O45" s="3">
         <v>10</v>
       </c>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="35"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="27"/>
     </row>
     <row r="46" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="15" t="s">
@@ -6523,12 +6523,12 @@
         <v>188.4</v>
       </c>
       <c r="Q46" s="17">
-        <f>VAR(F46:O46)</f>
-        <v>20.711111111111105</v>
+        <f t="shared" ref="Q46:Q48" si="10">SQRT(_xlfn.VAR.P(F46:O46))</f>
+        <v>4.3174066289845801</v>
       </c>
     </row>
     <row r="47" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D47" s="20"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="15" t="s">
         <v>2</v>
       </c>
@@ -6563,16 +6563,16 @@
         <v>1867</v>
       </c>
       <c r="P47" s="18">
-        <f t="shared" ref="P47:P48" si="9">AVERAGE(F47:O47)</f>
+        <f t="shared" ref="P47:P48" si="11">AVERAGE(F47:O47)</f>
         <v>1889.9</v>
       </c>
       <c r="Q47" s="17">
-        <f t="shared" ref="Q47:Q48" si="10">VAR(F47:O47)</f>
-        <v>829.43333333333351</v>
+        <f t="shared" si="10"/>
+        <v>27.321969182326519</v>
       </c>
     </row>
     <row r="48" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D48" s="21"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="15" t="s">
         <v>3</v>
       </c>
@@ -6607,80 +6607,80 @@
         <v>330</v>
       </c>
       <c r="P48" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>346.2</v>
       </c>
       <c r="Q48" s="17">
         <f t="shared" si="10"/>
-        <v>856.84444444444443</v>
+        <v>27.769767733994463</v>
       </c>
     </row>
     <row r="49" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="24"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="21"/>
     </row>
     <row r="51" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D51" s="25"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27" t="s">
+      <c r="D51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="30" t="s">
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q51" s="33" t="s">
+      <c r="Q51" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="34"/>
-      <c r="F52" s="36">
+      <c r="E52" s="26"/>
+      <c r="F52" s="31">
         <v>100000</v>
       </c>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="34"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="26"/>
     </row>
     <row r="53" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="35"/>
+      <c r="E53" s="27"/>
       <c r="F53" s="12">
         <v>1</v>
       </c>
@@ -6711,11 +6711,11 @@
       <c r="O53" s="3">
         <v>10</v>
       </c>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="35"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="27"/>
     </row>
     <row r="54" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="15" t="s">
@@ -6756,8 +6756,8 @@
         <v>458.8</v>
       </c>
       <c r="Q54" s="17">
-        <f>VAR(F54:O54)</f>
-        <v>709.28888888888878</v>
+        <f t="shared" ref="Q54:Q56" si="12">SQRT(_xlfn.VAR.P(F54:O54))</f>
+        <v>25.265787143882928</v>
       </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -6765,7 +6765,7 @@
       <c r="V54" s="1"/>
     </row>
     <row r="55" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D55" s="20"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="15" t="s">
         <v>2</v>
       </c>
@@ -6800,16 +6800,16 @@
         <v>6799</v>
       </c>
       <c r="P55" s="18">
-        <f t="shared" ref="P55:P56" si="11">AVERAGE(F55:O55)</f>
+        <f t="shared" ref="P55:P56" si="13">AVERAGE(F55:O55)</f>
         <v>6342.3</v>
       </c>
       <c r="Q55" s="17">
-        <f t="shared" ref="Q55:Q56" si="12">VAR(F55:O55)</f>
-        <v>47141.788888888885</v>
+        <f t="shared" si="12"/>
+        <v>205.97963491568771</v>
       </c>
     </row>
     <row r="56" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="21"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="15" t="s">
         <v>3</v>
       </c>
@@ -6844,80 +6844,80 @@
         <v>1231</v>
       </c>
       <c r="P56" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1302.3</v>
       </c>
       <c r="Q56" s="17">
         <f t="shared" si="12"/>
-        <v>16902.011111111115</v>
+        <v>123.33616663412238</v>
       </c>
     </row>
     <row r="57" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="24"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="21"/>
     </row>
     <row r="59" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D59" s="25"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="27" t="s">
+      <c r="D59" s="34"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="30" t="s">
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="33" t="s">
+      <c r="Q59" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="34"/>
-      <c r="F60" s="36">
+      <c r="E60" s="26"/>
+      <c r="F60" s="31">
         <v>200000</v>
       </c>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="34"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="26"/>
     </row>
     <row r="61" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="35"/>
+      <c r="E61" s="27"/>
       <c r="F61" s="12">
         <v>1</v>
       </c>
@@ -6948,11 +6948,11 @@
       <c r="O61" s="3">
         <v>10</v>
       </c>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="35"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="27"/>
     </row>
     <row r="62" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="15" t="s">
@@ -6993,12 +6993,12 @@
         <v>906.3</v>
       </c>
       <c r="Q62" s="17">
-        <f>VAR(F62:O62)</f>
-        <v>2373.1222222222223</v>
+        <f t="shared" ref="Q62:Q64" si="14">SQRT(_xlfn.VAR.P(F62:O62))</f>
+        <v>46.214824461421465</v>
       </c>
     </row>
     <row r="63" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D63" s="20"/>
+      <c r="D63" s="37"/>
       <c r="E63" s="15" t="s">
         <v>2</v>
       </c>
@@ -7033,16 +7033,16 @@
         <v>15311</v>
       </c>
       <c r="P63" s="18">
-        <f t="shared" ref="P63:P64" si="13">AVERAGE(F63:O63)</f>
+        <f t="shared" ref="P63:P64" si="15">AVERAGE(F63:O63)</f>
         <v>15244.9</v>
       </c>
       <c r="Q63" s="17">
-        <f t="shared" ref="Q63:Q64" si="14">VAR(F63:O63)</f>
-        <v>21329.655555555553</v>
+        <f t="shared" si="14"/>
+        <v>138.55212015700084</v>
       </c>
     </row>
     <row r="64" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D64" s="21"/>
+      <c r="D64" s="38"/>
       <c r="E64" s="15" t="s">
         <v>3</v>
       </c>
@@ -7077,80 +7077,80 @@
         <v>4238</v>
       </c>
       <c r="P64" s="18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4210.2</v>
       </c>
       <c r="Q64" s="17">
         <f t="shared" si="14"/>
-        <v>163375.51111111112</v>
+        <v>383.45529074456647</v>
       </c>
     </row>
     <row r="65" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="24"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="21"/>
     </row>
     <row r="67" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D67" s="25"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="27" t="s">
+      <c r="D67" s="34"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="30" t="s">
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q67" s="33" t="s">
+      <c r="Q67" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D68" s="31" t="s">
+      <c r="D68" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="34"/>
-      <c r="F68" s="36">
+      <c r="E68" s="26"/>
+      <c r="F68" s="31">
         <v>500000</v>
       </c>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="31"/>
-      <c r="Q68" s="34"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="26"/>
     </row>
     <row r="69" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="35"/>
+      <c r="E69" s="27"/>
       <c r="F69" s="12">
         <v>1</v>
       </c>
@@ -7181,11 +7181,11 @@
       <c r="O69" s="3">
         <v>10</v>
       </c>
-      <c r="P69" s="32"/>
-      <c r="Q69" s="35"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="27"/>
     </row>
     <row r="70" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E70" s="15" t="s">
@@ -7226,12 +7226,12 @@
         <v>2076.1</v>
       </c>
       <c r="Q70" s="17">
-        <f>VAR(F70:O70)</f>
-        <v>20909.433333333334</v>
+        <f t="shared" ref="Q70:Q72" si="16">SQRT(_xlfn.VAR.P(F70:O70))</f>
+        <v>137.18050152991862</v>
       </c>
     </row>
     <row r="71" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D71" s="20"/>
+      <c r="D71" s="37"/>
       <c r="E71" s="15" t="s">
         <v>2</v>
       </c>
@@ -7266,16 +7266,16 @@
         <v>56381</v>
       </c>
       <c r="P71" s="18">
-        <f t="shared" ref="P71:P72" si="15">AVERAGE(F71:O71)</f>
+        <f t="shared" ref="P71:P72" si="17">AVERAGE(F71:O71)</f>
         <v>56583.9</v>
       </c>
       <c r="Q71" s="17">
-        <f t="shared" ref="Q71:Q72" si="16">VAR(F71:O71)</f>
-        <v>441313.65555555548</v>
+        <f t="shared" si="16"/>
+        <v>630.22399986036703</v>
       </c>
     </row>
     <row r="72" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D72" s="21"/>
+      <c r="D72" s="38"/>
       <c r="E72" s="15" t="s">
         <v>3</v>
       </c>
@@ -7310,80 +7310,80 @@
         <v>22425</v>
       </c>
       <c r="P72" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22676.6</v>
       </c>
       <c r="Q72" s="17">
         <f t="shared" si="16"/>
-        <v>6603503.8222221797</v>
+        <v>2437.8583716040603</v>
       </c>
     </row>
     <row r="73" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="74" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="23"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="24"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="21"/>
     </row>
     <row r="75" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D75" s="25"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="27" t="s">
+      <c r="D75" s="34"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="30" t="s">
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q75" s="33" t="s">
+      <c r="Q75" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="34"/>
-      <c r="F76" s="36">
+      <c r="E76" s="26"/>
+      <c r="F76" s="31">
         <v>1000000</v>
       </c>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="31"/>
-      <c r="Q76" s="34"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="32"/>
+      <c r="N76" s="32"/>
+      <c r="O76" s="33"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="26"/>
     </row>
     <row r="77" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D77" s="31" t="s">
+      <c r="D77" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="35"/>
+      <c r="E77" s="27"/>
       <c r="F77" s="12">
         <v>1</v>
       </c>
@@ -7414,11 +7414,11 @@
       <c r="O77" s="3">
         <v>10</v>
       </c>
-      <c r="P77" s="32"/>
-      <c r="Q77" s="35"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="27"/>
     </row>
     <row r="78" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D78" s="19" t="s">
+      <c r="D78" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E78" s="15" t="s">
@@ -7459,12 +7459,12 @@
         <v>4658.8999999999996</v>
       </c>
       <c r="Q78" s="17">
-        <f>VAR(F78:O78)</f>
-        <v>50754.544444444451</v>
+        <f t="shared" ref="Q78:Q80" si="18">SQRT(_xlfn.VAR.P(F78:O78))</f>
+        <v>213.72667124156501</v>
       </c>
     </row>
     <row r="79" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D79" s="20"/>
+      <c r="D79" s="37"/>
       <c r="E79" s="15" t="s">
         <v>2</v>
       </c>
@@ -7499,16 +7499,16 @@
         <v>185188</v>
       </c>
       <c r="P79" s="18">
-        <f t="shared" ref="P79:P80" si="17">AVERAGE(F79:O79)</f>
+        <f t="shared" ref="P79:P80" si="19">AVERAGE(F79:O79)</f>
         <v>181641.3</v>
       </c>
       <c r="Q79" s="17">
-        <f>VAR(F79:O79)</f>
-        <v>204582226.45555553</v>
+        <f t="shared" si="18"/>
+        <v>13569.230037478175</v>
       </c>
     </row>
     <row r="80" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D80" s="21"/>
+      <c r="D80" s="38"/>
       <c r="E80" s="15" t="s">
         <v>3</v>
       </c>
@@ -7543,26 +7543,80 @@
         <v>77349</v>
       </c>
       <c r="P80" s="18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>70028.3</v>
       </c>
       <c r="Q80" s="17">
-        <f>VAR(F80:O80)</f>
-        <v>37995025.122222215</v>
+        <f t="shared" si="18"/>
+        <v>5847.693785587614</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="D2:Q2"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="Q3:Q5"/>
-    <mergeCell ref="D10:Q10"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D74:Q74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:O75"/>
+    <mergeCell ref="P75:P77"/>
+    <mergeCell ref="Q75:Q77"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:O76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D66:Q66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:O67"/>
+    <mergeCell ref="P67:P69"/>
+    <mergeCell ref="Q67:Q69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:O68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D58:Q58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:O59"/>
+    <mergeCell ref="P59:P61"/>
+    <mergeCell ref="Q59:Q61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:O60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D50:Q50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:O51"/>
+    <mergeCell ref="P51:P53"/>
+    <mergeCell ref="Q51:Q53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:O52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D42:Q42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:O43"/>
+    <mergeCell ref="P43:P45"/>
+    <mergeCell ref="Q43:Q45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:O44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:O35"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="Q35:Q37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:O36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:O27"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="Q27:Q29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:O28"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="F12:O12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D11:E11"/>
@@ -7579,70 +7633,16 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:O20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:O27"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="Q27:Q29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:O28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:O35"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="Q35:Q37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:O36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D42:Q42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:O43"/>
-    <mergeCell ref="P43:P45"/>
-    <mergeCell ref="Q43:Q45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:O44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D50:Q50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:O51"/>
-    <mergeCell ref="P51:P53"/>
-    <mergeCell ref="Q51:Q53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:O52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D58:Q58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:O59"/>
-    <mergeCell ref="P59:P61"/>
-    <mergeCell ref="Q59:Q61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:O60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D66:Q66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:O67"/>
-    <mergeCell ref="P67:P69"/>
-    <mergeCell ref="Q67:Q69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:O68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D74:Q74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:O75"/>
-    <mergeCell ref="P75:P77"/>
-    <mergeCell ref="Q75:Q77"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:O76"/>
-    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D2:Q2"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7653,8 +7653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76984051-E956-467A-8136-88D3666BD5F9}">
   <dimension ref="C2:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="O19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:P7"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7665,70 +7665,70 @@
   <sheetData>
     <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="30" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="36">
+      <c r="D5" s="26"/>
+      <c r="E5" s="31">
         <v>1000</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="34"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="26"/>
     </row>
     <row r="6" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="12">
         <v>1</v>
       </c>
@@ -7759,11 +7759,11 @@
       <c r="N6" s="3">
         <v>10</v>
       </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="35"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="27"/>
     </row>
     <row r="7" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -7804,12 +7804,12 @@
         <v>0.3</v>
       </c>
       <c r="P7" s="17">
-        <f>VAR(E7:N7)</f>
-        <v>0.23333333333333334</v>
+        <f t="shared" ref="P7:P9" si="0">SQRT(_xlfn.VAR.P(E7:N7))</f>
+        <v>0.45825756949558399</v>
       </c>
     </row>
     <row r="8" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="20"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="15" t="s">
         <v>2</v>
       </c>
@@ -7844,16 +7844,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="18">
-        <f t="shared" ref="O8:O9" si="0">AVERAGE(E8:N8)</f>
+        <f t="shared" ref="O8:O9" si="1">AVERAGE(E8:N8)</f>
         <v>0.3</v>
       </c>
       <c r="P8" s="17">
-        <f t="shared" ref="P8:P9" si="1">VAR(E8:N8)</f>
-        <v>0.23333333333333334</v>
+        <f t="shared" si="0"/>
+        <v>0.45825756949558399</v>
       </c>
     </row>
     <row r="9" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="21"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="15" t="s">
         <v>3</v>
       </c>
@@ -7888,12 +7888,12 @@
         <v>0</v>
       </c>
       <c r="O9" s="18">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="P9" s="17">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="P9" s="17">
-        <f t="shared" si="1"/>
-        <v>0.23333333333333334</v>
+        <v>0.45825756949558399</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7901,70 +7901,70 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="30" t="s">
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="33" t="s">
+      <c r="P12" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="36">
+      <c r="D13" s="26"/>
+      <c r="E13" s="31">
         <v>2000</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="34"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="26"/>
     </row>
     <row r="14" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="12">
         <v>1</v>
       </c>
@@ -7995,11 +7995,11 @@
       <c r="N14" s="3">
         <v>10</v>
       </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="35"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="27"/>
     </row>
     <row r="15" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -8040,12 +8040,12 @@
         <v>0.6</v>
       </c>
       <c r="P15" s="17">
-        <f>VAR(E15:N15)</f>
-        <v>0.71111111111111114</v>
+        <f t="shared" ref="P15:P17" si="2">SQRT(_xlfn.VAR.P(E15:N15))</f>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="20"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="15" t="s">
         <v>2</v>
       </c>
@@ -8080,16 +8080,16 @@
         <v>1</v>
       </c>
       <c r="O16" s="18">
-        <f t="shared" ref="O16:O17" si="2">AVERAGE(E16:N16)</f>
+        <f t="shared" ref="O16:O17" si="3">AVERAGE(E16:N16)</f>
         <v>0.5</v>
       </c>
       <c r="P16" s="17">
-        <f t="shared" ref="P16:P17" si="3">VAR(E16:N16)</f>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.67082039324993692</v>
       </c>
     </row>
     <row r="17" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="21"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="15" t="s">
         <v>3</v>
       </c>
@@ -8124,80 +8124,80 @@
         <v>0</v>
       </c>
       <c r="O17" s="18">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="P17" s="17">
         <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="P17" s="17">
-        <f t="shared" si="3"/>
-        <v>0.26666666666666666</v>
+        <v>0.4898979485566356</v>
       </c>
     </row>
     <row r="18" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="30" t="s">
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P20" s="33" t="s">
+      <c r="P20" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="36">
+      <c r="D21" s="26"/>
+      <c r="E21" s="31">
         <v>5000</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="34"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="26"/>
     </row>
     <row r="22" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="35"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="12">
         <v>1</v>
       </c>
@@ -8228,11 +8228,11 @@
       <c r="N22" s="3">
         <v>10</v>
       </c>
-      <c r="O22" s="32"/>
-      <c r="P22" s="35"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="27"/>
     </row>
     <row r="23" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="15" t="s">
@@ -8273,12 +8273,12 @@
         <v>2.4</v>
       </c>
       <c r="P23" s="17">
-        <f>VAR(E23:N23)</f>
-        <v>2.7111111111111108</v>
+        <f t="shared" ref="P23:P25" si="4">SQRT(_xlfn.VAR.P(E23:N23))</f>
+        <v>1.5620499351813308</v>
       </c>
     </row>
     <row r="24" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="20"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="15" t="s">
         <v>2</v>
       </c>
@@ -8313,16 +8313,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="18">
-        <f t="shared" ref="O24:O25" si="4">AVERAGE(E24:N24)</f>
+        <f t="shared" ref="O24:O25" si="5">AVERAGE(E24:N24)</f>
         <v>0.3</v>
       </c>
       <c r="P24" s="17">
-        <f t="shared" ref="P24:P25" si="5">VAR(E24:N24)</f>
-        <v>0.23333333333333334</v>
+        <f t="shared" si="4"/>
+        <v>0.45825756949558399</v>
       </c>
     </row>
     <row r="25" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="21"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="15" t="s">
         <v>3</v>
       </c>
@@ -8357,80 +8357,80 @@
         <v>1</v>
       </c>
       <c r="O25" s="18">
+        <f t="shared" si="5"/>
+        <v>1.3</v>
+      </c>
+      <c r="P25" s="17">
         <f t="shared" si="4"/>
-        <v>1.3</v>
-      </c>
-      <c r="P25" s="17">
-        <f t="shared" si="5"/>
-        <v>0.2333333333333335</v>
+        <v>0.45825756949558399</v>
       </c>
     </row>
     <row r="26" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="24"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="21"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27" t="s">
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="30" t="s">
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P28" s="33" t="s">
+      <c r="P28" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="36">
+      <c r="D29" s="26"/>
+      <c r="E29" s="31">
         <v>10000</v>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="34"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="26"/>
     </row>
     <row r="30" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="35"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="12">
         <v>1</v>
       </c>
@@ -8461,11 +8461,11 @@
       <c r="N30" s="3">
         <v>10</v>
       </c>
-      <c r="O30" s="32"/>
-      <c r="P30" s="35"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="27"/>
     </row>
     <row r="31" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="15" t="s">
@@ -8506,12 +8506,12 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="P31" s="17">
-        <f>VAR(E31:N31)</f>
-        <v>0.17777777777777792</v>
+        <f t="shared" ref="P31:P33" si="6">SQRT(_xlfn.VAR.P(E31:N31))</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="20"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="15" t="s">
         <v>2</v>
       </c>
@@ -8546,16 +8546,16 @@
         <v>1</v>
       </c>
       <c r="O32" s="18">
-        <f t="shared" ref="O32:O33" si="6">AVERAGE(E32:N32)</f>
+        <f t="shared" ref="O32:O33" si="7">AVERAGE(E32:N32)</f>
         <v>1</v>
       </c>
       <c r="P32" s="17">
-        <f t="shared" ref="P32:P33" si="7">VAR(E32:N32)</f>
-        <v>0.22222222222222221</v>
+        <f t="shared" si="6"/>
+        <v>0.44721359549995793</v>
       </c>
     </row>
     <row r="33" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="21"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="15" t="s">
         <v>3</v>
       </c>
@@ -8590,12 +8590,12 @@
         <v>2</v>
       </c>
       <c r="O33" s="18">
+        <f t="shared" si="7"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P33" s="17">
         <f t="shared" si="6"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P33" s="17">
-        <f t="shared" si="7"/>
-        <v>0.17777777777777792</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="34" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8613,22 +8613,22 @@
       </c>
     </row>
     <row r="35" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="24"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="21"/>
       <c r="R35" s="16">
         <v>1000</v>
       </c>
@@ -8643,24 +8643,24 @@
       </c>
     </row>
     <row r="36" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27" t="s">
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="30" t="s">
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P36" s="33" t="s">
+      <c r="P36" s="25" t="s">
         <v>9</v>
       </c>
       <c r="R36" s="16">
@@ -8677,24 +8677,24 @@
       </c>
     </row>
     <row r="37" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="36">
+      <c r="D37" s="26"/>
+      <c r="E37" s="31">
         <v>20000</v>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="34"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="26"/>
       <c r="R37" s="16">
         <v>5000</v>
       </c>
@@ -8709,10 +8709,10 @@
       </c>
     </row>
     <row r="38" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="35"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="12">
         <v>1</v>
       </c>
@@ -8743,8 +8743,8 @@
       <c r="N38" s="3">
         <v>10</v>
       </c>
-      <c r="O38" s="32"/>
-      <c r="P38" s="35"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="27"/>
       <c r="R38" s="16">
         <v>10000</v>
       </c>
@@ -8759,7 +8759,7 @@
       </c>
     </row>
     <row r="39" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -8800,8 +8800,8 @@
         <v>6.1</v>
       </c>
       <c r="P39" s="17">
-        <f>VAR(E39:N39)</f>
-        <v>11.877777777777775</v>
+        <f t="shared" ref="P39:P41" si="8">SQRT(_xlfn.VAR.P(E39:N39))</f>
+        <v>3.2695565448543631</v>
       </c>
       <c r="R39" s="16">
         <v>20000</v>
@@ -8817,7 +8817,7 @@
       </c>
     </row>
     <row r="40" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="20"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="15" t="s">
         <v>2</v>
       </c>
@@ -8852,12 +8852,12 @@
         <v>2</v>
       </c>
       <c r="O40" s="18">
-        <f t="shared" ref="O40:O41" si="8">AVERAGE(E40:N40)</f>
+        <f t="shared" ref="O40:O41" si="9">AVERAGE(E40:N40)</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="P40" s="17">
-        <f t="shared" ref="P40:P41" si="9">VAR(E40:N40)</f>
-        <v>0.2333333333333335</v>
+        <f t="shared" si="8"/>
+        <v>0.45825756949558399</v>
       </c>
       <c r="R40" s="16">
         <v>50000</v>
@@ -8873,7 +8873,7 @@
       </c>
     </row>
     <row r="41" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="21"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="15" t="s">
         <v>3</v>
       </c>
@@ -8908,12 +8908,12 @@
         <v>4</v>
       </c>
       <c r="O41" s="18">
+        <f t="shared" si="9"/>
+        <v>5.8</v>
+      </c>
+      <c r="P41" s="17">
         <f t="shared" si="8"/>
-        <v>5.8</v>
-      </c>
-      <c r="P41" s="17">
-        <f t="shared" si="9"/>
-        <v>6.6222222222222245</v>
+        <v>2.4413111231467406</v>
       </c>
       <c r="R41" s="16">
         <v>100000</v>
@@ -8943,22 +8943,22 @@
       </c>
     </row>
     <row r="43" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="24"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="21"/>
       <c r="R43" s="16">
         <v>500000</v>
       </c>
@@ -8973,24 +8973,24 @@
       </c>
     </row>
     <row r="44" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27" t="s">
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="30" t="s">
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P44" s="33" t="s">
+      <c r="P44" s="25" t="s">
         <v>9</v>
       </c>
       <c r="R44" s="16">
@@ -9007,30 +9007,30 @@
       </c>
     </row>
     <row r="45" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="36">
+      <c r="D45" s="26"/>
+      <c r="E45" s="31">
         <v>50000</v>
       </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="34"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="26"/>
     </row>
     <row r="46" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="35"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="12">
         <v>1</v>
       </c>
@@ -9061,11 +9061,11 @@
       <c r="N46" s="3">
         <v>10</v>
       </c>
-      <c r="O46" s="32"/>
-      <c r="P46" s="35"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="27"/>
     </row>
     <row r="47" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="15" t="s">
@@ -9106,12 +9106,12 @@
         <v>14.4</v>
       </c>
       <c r="P47" s="17">
-        <f>VAR(E47:N47)</f>
-        <v>27.377777777777787</v>
+        <f t="shared" ref="P47:P49" si="10">SQRT(_xlfn.VAR.P(E47:N47))</f>
+        <v>4.963869458396343</v>
       </c>
     </row>
     <row r="48" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="20"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="15" t="s">
         <v>2</v>
       </c>
@@ -9146,16 +9146,16 @@
         <v>7</v>
       </c>
       <c r="O48" s="18">
-        <f t="shared" ref="O48:O49" si="10">AVERAGE(E48:N48)</f>
+        <f t="shared" ref="O48:O49" si="11">AVERAGE(E48:N48)</f>
         <v>5.2</v>
       </c>
       <c r="P48" s="17">
-        <f t="shared" ref="P48:P49" si="11">VAR(E48:N48)</f>
-        <v>5.0666666666666691</v>
+        <f t="shared" si="10"/>
+        <v>2.1354156504062622</v>
       </c>
     </row>
     <row r="49" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="21"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="15" t="s">
         <v>3</v>
       </c>
@@ -9190,80 +9190,80 @@
         <v>12</v>
       </c>
       <c r="O49" s="18">
+        <f t="shared" si="11"/>
+        <v>16.5</v>
+      </c>
+      <c r="P49" s="17">
         <f t="shared" si="10"/>
-        <v>16.5</v>
-      </c>
-      <c r="P49" s="17">
-        <f t="shared" si="11"/>
-        <v>58.944444444444443</v>
+        <v>7.2835430938520576</v>
       </c>
     </row>
     <row r="50" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="51" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="24"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="21"/>
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="27" t="s">
+      <c r="C52" s="34"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="30" t="s">
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="33" t="s">
+      <c r="P52" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="36">
+      <c r="D53" s="26"/>
+      <c r="E53" s="31">
         <v>100000</v>
       </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="34"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="26"/>
     </row>
     <row r="54" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="35"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="12">
         <v>1</v>
       </c>
@@ -9294,11 +9294,11 @@
       <c r="N54" s="3">
         <v>10</v>
       </c>
-      <c r="O54" s="32"/>
-      <c r="P54" s="35"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="27"/>
     </row>
     <row r="55" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="15" t="s">
@@ -9339,12 +9339,12 @@
         <v>23</v>
       </c>
       <c r="P55" s="17">
-        <f>VAR(E55:N55)</f>
-        <v>18.222222222222221</v>
+        <f t="shared" ref="P55:P57" si="12">SQRT(_xlfn.VAR.P(E55:N55))</f>
+        <v>4.0496913462633168</v>
       </c>
     </row>
     <row r="56" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C56" s="20"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="15" t="s">
         <v>2</v>
       </c>
@@ -9379,16 +9379,16 @@
         <v>9</v>
       </c>
       <c r="O56" s="18">
-        <f t="shared" ref="O56:O57" si="12">AVERAGE(E56:N56)</f>
+        <f t="shared" ref="O56:O57" si="13">AVERAGE(E56:N56)</f>
         <v>11.2</v>
       </c>
       <c r="P56" s="17">
-        <f t="shared" ref="P56:P57" si="13">VAR(E56:N56)</f>
-        <v>10.622222222222213</v>
+        <f t="shared" si="12"/>
+        <v>3.0919249667480613</v>
       </c>
     </row>
     <row r="57" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C57" s="21"/>
+      <c r="C57" s="38"/>
       <c r="D57" s="15" t="s">
         <v>3</v>
       </c>
@@ -9423,80 +9423,80 @@
         <v>23</v>
       </c>
       <c r="O57" s="18">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="P57" s="17">
         <f t="shared" si="12"/>
-        <v>27</v>
-      </c>
-      <c r="P57" s="17">
-        <f t="shared" si="13"/>
-        <v>51.777777777777779</v>
+        <v>6.8264192663504053</v>
       </c>
     </row>
     <row r="58" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="59" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="24"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="21"/>
     </row>
     <row r="60" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C60" s="25"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="27" t="s">
+      <c r="C60" s="34"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="30" t="s">
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P60" s="33" t="s">
+      <c r="P60" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="34"/>
-      <c r="E61" s="36">
+      <c r="D61" s="26"/>
+      <c r="E61" s="31">
         <v>200000</v>
       </c>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="34"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="26"/>
     </row>
     <row r="62" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="35"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="12">
         <v>1</v>
       </c>
@@ -9527,11 +9527,11 @@
       <c r="N62" s="3">
         <v>10</v>
       </c>
-      <c r="O62" s="32"/>
-      <c r="P62" s="35"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="27"/>
     </row>
     <row r="63" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="15" t="s">
@@ -9572,12 +9572,12 @@
         <v>57.6</v>
       </c>
       <c r="P63" s="17">
-        <f>VAR(E63:N63)</f>
-        <v>64.933333333333493</v>
+        <f t="shared" ref="P63:P65" si="14">SQRT(_xlfn.VAR.P(E63:N63))</f>
+        <v>7.6446059414465566</v>
       </c>
     </row>
     <row r="64" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C64" s="20"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="15" t="s">
         <v>2</v>
       </c>
@@ -9612,16 +9612,16 @@
         <v>19</v>
       </c>
       <c r="O64" s="18">
-        <f t="shared" ref="O64:O65" si="14">AVERAGE(E64:N64)</f>
+        <f t="shared" ref="O64:O65" si="15">AVERAGE(E64:N64)</f>
         <v>23.3</v>
       </c>
       <c r="P64" s="17">
-        <f t="shared" ref="P64:P65" si="15">VAR(E64:N64)</f>
-        <v>31.122222222222263</v>
+        <f t="shared" si="14"/>
+        <v>5.2924474489596971</v>
       </c>
     </row>
     <row r="65" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C65" s="21"/>
+      <c r="C65" s="38"/>
       <c r="D65" s="15" t="s">
         <v>3</v>
       </c>
@@ -9656,80 +9656,80 @@
         <v>63</v>
       </c>
       <c r="O65" s="18">
+        <f t="shared" si="15"/>
+        <v>44.7</v>
+      </c>
+      <c r="P65" s="17">
         <f t="shared" si="14"/>
-        <v>44.7</v>
-      </c>
-      <c r="P65" s="17">
-        <f t="shared" si="15"/>
-        <v>66.233333333333178</v>
+        <v>7.7207512587830465</v>
       </c>
     </row>
     <row r="66" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="67" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="24"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="21"/>
     </row>
     <row r="68" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="27" t="s">
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="30" t="s">
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P68" s="33" t="s">
+      <c r="P68" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="34"/>
-      <c r="E69" s="36">
+      <c r="D69" s="26"/>
+      <c r="E69" s="31">
         <v>500000</v>
       </c>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="34"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="26"/>
     </row>
     <row r="70" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="35"/>
+      <c r="D70" s="27"/>
       <c r="E70" s="12">
         <v>1</v>
       </c>
@@ -9760,11 +9760,11 @@
       <c r="N70" s="3">
         <v>10</v>
       </c>
-      <c r="O70" s="32"/>
-      <c r="P70" s="35"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="27"/>
     </row>
     <row r="71" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="15" t="s">
@@ -9805,12 +9805,12 @@
         <v>126.2</v>
       </c>
       <c r="P71" s="17">
-        <f>VAR(E71:N71)</f>
-        <v>740.62222222222283</v>
+        <f t="shared" ref="P71:P73" si="16">SQRT(_xlfn.VAR.P(E71:N71))</f>
+        <v>25.817823300967881</v>
       </c>
     </row>
     <row r="72" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C72" s="20"/>
+      <c r="C72" s="37"/>
       <c r="D72" s="15" t="s">
         <v>2</v>
       </c>
@@ -9845,16 +9845,16 @@
         <v>57</v>
       </c>
       <c r="O72" s="18">
-        <f t="shared" ref="O72:O73" si="16">AVERAGE(E72:N72)</f>
+        <f t="shared" ref="O72:O73" si="17">AVERAGE(E72:N72)</f>
         <v>60.2</v>
       </c>
       <c r="P72" s="17">
-        <f t="shared" ref="P72:P73" si="17">VAR(E72:N72)</f>
-        <v>79.288888888888721</v>
+        <f t="shared" si="16"/>
+        <v>8.4474848327771497</v>
       </c>
     </row>
     <row r="73" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C73" s="21"/>
+      <c r="C73" s="38"/>
       <c r="D73" s="15" t="s">
         <v>3</v>
       </c>
@@ -9889,80 +9889,80 @@
         <v>88</v>
       </c>
       <c r="O73" s="18">
+        <f t="shared" si="17"/>
+        <v>94.2</v>
+      </c>
+      <c r="P73" s="17">
         <f t="shared" si="16"/>
-        <v>94.2</v>
-      </c>
-      <c r="P73" s="17">
-        <f t="shared" si="17"/>
-        <v>210.17777777777843</v>
+        <v>13.753544997563356</v>
       </c>
     </row>
     <row r="74" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="23"/>
-      <c r="O75" s="23"/>
-      <c r="P75" s="24"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="21"/>
     </row>
     <row r="76" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C76" s="25"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="27" t="s">
+      <c r="C76" s="34"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="29"/>
-      <c r="O76" s="30" t="s">
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P76" s="33" t="s">
+      <c r="P76" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="36">
+      <c r="D77" s="26"/>
+      <c r="E77" s="31">
         <v>1000000</v>
       </c>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="31"/>
-      <c r="P77" s="34"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="33"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="26"/>
     </row>
     <row r="78" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="35"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="12">
         <v>1</v>
       </c>
@@ -9993,11 +9993,11 @@
       <c r="N78" s="3">
         <v>10</v>
       </c>
-      <c r="O78" s="32"/>
-      <c r="P78" s="35"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="27"/>
     </row>
     <row r="79" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="15" t="s">
@@ -10038,12 +10038,12 @@
         <v>243.1</v>
       </c>
       <c r="P79" s="17">
-        <f>VAR(E79:N79)</f>
-        <v>1003.8777777777804</v>
+        <f t="shared" ref="P79:P81" si="18">SQRT(_xlfn.VAR.P(E79:N79))</f>
+        <v>30.058110386383241</v>
       </c>
     </row>
     <row r="80" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C80" s="20"/>
+      <c r="C80" s="37"/>
       <c r="D80" s="15" t="s">
         <v>2</v>
       </c>
@@ -10078,16 +10078,16 @@
         <v>102</v>
       </c>
       <c r="O80" s="18">
-        <f t="shared" ref="O80:O81" si="18">AVERAGE(E80:N80)</f>
+        <f t="shared" ref="O80:O81" si="19">AVERAGE(E80:N80)</f>
         <v>109.6</v>
       </c>
       <c r="P80" s="17">
-        <f t="shared" ref="P80:P81" si="19">VAR(E80:N80)</f>
-        <v>1029.5999999999995</v>
+        <f t="shared" si="18"/>
+        <v>30.440762145517972</v>
       </c>
     </row>
     <row r="81" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C81" s="21"/>
+      <c r="C81" s="38"/>
       <c r="D81" s="15" t="s">
         <v>3</v>
       </c>
@@ -10122,96 +10122,16 @@
         <v>176</v>
       </c>
       <c r="O81" s="18">
+        <f t="shared" si="19"/>
+        <v>192.7</v>
+      </c>
+      <c r="P81" s="17">
         <f t="shared" si="18"/>
-        <v>192.7</v>
-      </c>
-      <c r="P81" s="17">
-        <f t="shared" si="19"/>
-        <v>1858.0111111111084</v>
+        <v>40.892664378834503</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="C3:P3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C11:P11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:N13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C19:P19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:N21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C27:P27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="O28:O30"/>
-    <mergeCell ref="P28:P30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C35:P35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:N36"/>
-    <mergeCell ref="O36:O38"/>
-    <mergeCell ref="P36:P38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:N37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C43:P43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:N44"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="P44:P46"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:N45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C51:P51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:N52"/>
-    <mergeCell ref="O52:O54"/>
-    <mergeCell ref="P52:P54"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:N53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C59:P59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:N60"/>
-    <mergeCell ref="O60:O62"/>
-    <mergeCell ref="P60:P62"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:N61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C67:P67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:N68"/>
-    <mergeCell ref="O68:O70"/>
-    <mergeCell ref="P68:P70"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:N69"/>
-    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C79:C81"/>
     <mergeCell ref="C71:C73"/>
     <mergeCell ref="C75:P75"/>
@@ -10222,6 +10142,86 @@
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="E77:N77"/>
     <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C67:P67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:N68"/>
+    <mergeCell ref="O68:O70"/>
+    <mergeCell ref="P68:P70"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:N69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C59:P59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:N60"/>
+    <mergeCell ref="O60:O62"/>
+    <mergeCell ref="P60:P62"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:N61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C51:P51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:N52"/>
+    <mergeCell ref="O52:O54"/>
+    <mergeCell ref="P52:P54"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:N53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C43:P43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:N44"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="P44:P46"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:N45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C35:P35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:N36"/>
+    <mergeCell ref="O36:O38"/>
+    <mergeCell ref="P36:P38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:N37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C27:P27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:O30"/>
+    <mergeCell ref="P28:P30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C19:P19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C11:P11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C3:P3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10232,8 +10232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B79194C-7885-4A8E-A31E-4DF0CF2543A6}">
   <dimension ref="C1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I9" workbookViewId="0">
-      <selection activeCell="U33" sqref="R23:U33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10245,70 +10245,70 @@
   <sheetData>
     <row r="1" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="36">
+      <c r="D4" s="26"/>
+      <c r="E4" s="31">
         <v>1000</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="34"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="26"/>
     </row>
     <row r="5" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="12">
         <v>1</v>
       </c>
@@ -10339,11 +10339,11 @@
       <c r="N5" s="3">
         <v>10</v>
       </c>
-      <c r="O5" s="32"/>
-      <c r="P5" s="35"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="27"/>
     </row>
     <row r="6" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -10384,12 +10384,12 @@
         <v>0.1</v>
       </c>
       <c r="P6" s="17">
-        <f>VAR(E6:N6)</f>
-        <v>0.1</v>
+        <f t="shared" ref="P6:P8" si="0">SQRT(_xlfn.VAR.P(E6:N6))</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="20"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="18">
-        <f t="shared" ref="O7:O8" si="0">AVERAGE(E7:N7)</f>
+        <f t="shared" ref="O7:O8" si="1">AVERAGE(E7:N7)</f>
         <v>0.1</v>
       </c>
       <c r="P7" s="17">
-        <f t="shared" ref="P7:P8" si="1">VAR(E7:N7)</f>
-        <v>0.1</v>
+        <f t="shared" si="0"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="21"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -10468,12 +10468,12 @@
         <v>0</v>
       </c>
       <c r="O8" s="18">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="P8" s="17">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="P8" s="17">
-        <f t="shared" si="1"/>
-        <v>0.17777777777777778</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10481,70 +10481,70 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="21"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P11" s="33" t="s">
+      <c r="P11" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="36">
+      <c r="D12" s="26"/>
+      <c r="E12" s="31">
         <v>2000</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="34"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="12">
         <v>1</v>
       </c>
@@ -10575,11 +10575,11 @@
       <c r="N13" s="3">
         <v>10</v>
       </c>
-      <c r="O13" s="32"/>
-      <c r="P13" s="35"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="27"/>
     </row>
     <row r="14" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -10620,12 +10620,12 @@
         <v>0.2</v>
       </c>
       <c r="P14" s="17">
-        <f>VAR(E14:N14)</f>
-        <v>0.17777777777777778</v>
+        <f t="shared" ref="P14:P16" si="2">SQRT(_xlfn.VAR.P(E14:N14))</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="20"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -10660,16 +10660,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="18">
-        <f t="shared" ref="O15:O16" si="2">AVERAGE(E15:N15)</f>
+        <f t="shared" ref="O15:O16" si="3">AVERAGE(E15:N15)</f>
         <v>0.1</v>
       </c>
       <c r="P15" s="17">
-        <f t="shared" ref="P15:P16" si="3">VAR(E15:N15)</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="21"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -10704,80 +10704,80 @@
         <v>1</v>
       </c>
       <c r="O16" s="18">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="P16" s="17">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="P16" s="17">
-        <f t="shared" si="3"/>
-        <v>0.17777777777777778</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="21"/>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30" t="s">
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P19" s="33" t="s">
+      <c r="P19" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="36">
+      <c r="D20" s="26"/>
+      <c r="E20" s="31">
         <v>5000</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="34"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="26"/>
     </row>
     <row r="21" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="12">
         <v>1</v>
       </c>
@@ -10808,11 +10808,11 @@
       <c r="N21" s="3">
         <v>10</v>
       </c>
-      <c r="O21" s="32"/>
-      <c r="P21" s="35"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="27"/>
     </row>
     <row r="22" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="15" t="s">
@@ -10853,12 +10853,12 @@
         <v>0.3</v>
       </c>
       <c r="P22" s="17">
-        <f>VAR(E22:N22)</f>
-        <v>0.23333333333333334</v>
+        <f t="shared" ref="P22:P24" si="4">SQRT(_xlfn.VAR.P(E22:N22))</f>
+        <v>0.45825756949558399</v>
       </c>
     </row>
     <row r="23" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="20"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="15" t="s">
         <v>2</v>
       </c>
@@ -10893,12 +10893,12 @@
         <v>1</v>
       </c>
       <c r="O23" s="18">
-        <f t="shared" ref="O23:O24" si="4">AVERAGE(E23:N23)</f>
+        <f t="shared" ref="O23:O24" si="5">AVERAGE(E23:N23)</f>
         <v>0.4</v>
       </c>
       <c r="P23" s="17">
-        <f t="shared" ref="P23:P24" si="5">VAR(E23:N23)</f>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="4"/>
+        <v>0.4898979485566356</v>
       </c>
       <c r="R23" t="s">
         <v>12</v>
@@ -10914,7 +10914,7 @@
       </c>
     </row>
     <row r="24" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="21"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="15" t="s">
         <v>3</v>
       </c>
@@ -10949,12 +10949,12 @@
         <v>1</v>
       </c>
       <c r="O24" s="18">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="P24" s="17">
         <f t="shared" si="4"/>
-        <v>0.7</v>
-      </c>
-      <c r="P24" s="17">
-        <f t="shared" si="5"/>
-        <v>0.23333333333333328</v>
+        <v>0.45825756949558399</v>
       </c>
       <c r="R24">
         <v>1000</v>
@@ -10984,22 +10984,22 @@
       </c>
     </row>
     <row r="26" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="24"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="21"/>
       <c r="R26">
         <v>5000</v>
       </c>
@@ -11014,24 +11014,24 @@
       </c>
     </row>
     <row r="27" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27" t="s">
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="30" t="s">
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P27" s="33" t="s">
+      <c r="P27" s="25" t="s">
         <v>9</v>
       </c>
       <c r="R27">
@@ -11048,24 +11048,24 @@
       </c>
     </row>
     <row r="28" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="36">
+      <c r="D28" s="26"/>
+      <c r="E28" s="31">
         <v>10000</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="34"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="26"/>
       <c r="R28">
         <v>20000</v>
       </c>
@@ -11080,10 +11080,10 @@
       </c>
     </row>
     <row r="29" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="35"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="12">
         <v>1</v>
       </c>
@@ -11114,8 +11114,8 @@
       <c r="N29" s="3">
         <v>10</v>
       </c>
-      <c r="O29" s="32"/>
-      <c r="P29" s="35"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="27"/>
       <c r="R29">
         <v>50000</v>
       </c>
@@ -11130,7 +11130,7 @@
       </c>
     </row>
     <row r="30" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -11171,8 +11171,8 @@
         <v>0.7</v>
       </c>
       <c r="P30" s="17">
-        <f>VAR(E30:N30)</f>
-        <v>0.23333333333333328</v>
+        <f t="shared" ref="P30:P32" si="6">SQRT(_xlfn.VAR.P(E30:N30))</f>
+        <v>0.45825756949558399</v>
       </c>
       <c r="R30">
         <v>100000</v>
@@ -11188,7 +11188,7 @@
       </c>
     </row>
     <row r="31" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="20"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="15" t="s">
         <v>2</v>
       </c>
@@ -11223,12 +11223,12 @@
         <v>1</v>
       </c>
       <c r="O31" s="18">
-        <f t="shared" ref="O31:O32" si="6">AVERAGE(E31:N31)</f>
+        <f t="shared" ref="O31:O32" si="7">AVERAGE(E31:N31)</f>
         <v>1.5</v>
       </c>
       <c r="P31" s="17">
-        <f t="shared" ref="P31:P32" si="7">VAR(E31:N31)</f>
-        <v>0.27777777777777779</v>
+        <f t="shared" si="6"/>
+        <v>0.5</v>
       </c>
       <c r="R31">
         <v>200000</v>
@@ -11244,7 +11244,7 @@
       </c>
     </row>
     <row r="32" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="21"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="15" t="s">
         <v>3</v>
       </c>
@@ -11279,12 +11279,12 @@
         <v>1</v>
       </c>
       <c r="O32" s="18">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="P32" s="17">
         <f t="shared" si="6"/>
-        <v>1.4</v>
-      </c>
-      <c r="P32" s="17">
-        <f t="shared" si="7"/>
-        <v>0.2666666666666665</v>
+        <v>0.4898979485566356</v>
       </c>
       <c r="R32">
         <v>500000</v>
@@ -11314,70 +11314,70 @@
       </c>
     </row>
     <row r="34" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="24"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
     </row>
     <row r="35" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27" t="s">
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="30" t="s">
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P35" s="33" t="s">
+      <c r="P35" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="36">
+      <c r="D36" s="26"/>
+      <c r="E36" s="31">
         <v>20000</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="34"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="26"/>
     </row>
     <row r="37" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="35"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="12">
         <v>1</v>
       </c>
@@ -11408,11 +11408,11 @@
       <c r="N37" s="3">
         <v>10</v>
       </c>
-      <c r="O37" s="32"/>
-      <c r="P37" s="35"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="27"/>
     </row>
     <row r="38" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="15" t="s">
@@ -11453,12 +11453,12 @@
         <v>1.2</v>
       </c>
       <c r="P38" s="17">
-        <f>VAR(E38:N38)</f>
-        <v>0.17777777777777773</v>
+        <f t="shared" ref="P38:P40" si="8">SQRT(_xlfn.VAR.P(E38:N38))</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="39" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="20"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="15" t="s">
         <v>2</v>
       </c>
@@ -11497,12 +11497,12 @@
         <v>2.7</v>
       </c>
       <c r="P39" s="17">
-        <f>VAR(E39:N39)</f>
-        <v>0.2333333333333327</v>
+        <f t="shared" si="8"/>
+        <v>0.45825756949558399</v>
       </c>
     </row>
     <row r="40" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="21"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="15" t="s">
         <v>3</v>
       </c>
@@ -11541,76 +11541,76 @@
         <v>3</v>
       </c>
       <c r="P40" s="17">
-        <f>VAR(E40:N40)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="24"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="21"/>
     </row>
     <row r="43" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="27" t="s">
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="30" t="s">
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="33" t="s">
+      <c r="P43" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="36">
+      <c r="D44" s="26"/>
+      <c r="E44" s="31">
         <v>50000</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="34"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="26"/>
     </row>
     <row r="45" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="35"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="12">
         <v>1</v>
       </c>
@@ -11641,11 +11641,11 @@
       <c r="N45" s="3">
         <v>10</v>
       </c>
-      <c r="O45" s="32"/>
-      <c r="P45" s="35"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="27"/>
     </row>
     <row r="46" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -11686,12 +11686,12 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="P46" s="17">
-        <f>VAR(E46:N46)</f>
-        <v>0.2333333333333335</v>
+        <f t="shared" ref="P46:P48" si="9">SQRT(_xlfn.VAR.P(E46:N46))</f>
+        <v>0.45825756949558399</v>
       </c>
     </row>
     <row r="47" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="20"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="15" t="s">
         <v>2</v>
       </c>
@@ -11726,16 +11726,16 @@
         <v>7</v>
       </c>
       <c r="O47" s="18">
-        <f t="shared" ref="O47:O48" si="8">AVERAGE(E47:N47)</f>
+        <f t="shared" ref="O47:O48" si="10">AVERAGE(E47:N47)</f>
         <v>6.8</v>
       </c>
       <c r="P47" s="17">
-        <f t="shared" ref="P47:P48" si="9">VAR(E47:N47)</f>
-        <v>0.17777777777777773</v>
+        <f t="shared" si="9"/>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="48" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="21"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="15" t="s">
         <v>3</v>
       </c>
@@ -11770,80 +11770,80 @@
         <v>8</v>
       </c>
       <c r="O48" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.8</v>
       </c>
       <c r="P48" s="17">
         <f t="shared" si="9"/>
-        <v>0.17777777777777773</v>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="49" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="24"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="21"/>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C51" s="25"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="27" t="s">
+      <c r="C51" s="34"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="30" t="s">
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P51" s="33" t="s">
+      <c r="P51" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="36">
+      <c r="D52" s="26"/>
+      <c r="E52" s="31">
         <v>100000</v>
       </c>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="34"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="26"/>
     </row>
     <row r="53" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="35"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="12">
         <v>1</v>
       </c>
@@ -11874,11 +11874,11 @@
       <c r="N53" s="3">
         <v>10</v>
       </c>
-      <c r="O53" s="32"/>
-      <c r="P53" s="35"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="27"/>
     </row>
     <row r="54" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="15" t="s">
@@ -11919,12 +11919,12 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="P54" s="17">
-        <f>VAR(E54:N54)</f>
-        <v>0.48888888888888954</v>
+        <f t="shared" ref="P54:P56" si="11">SQRT(_xlfn.VAR.P(E54:N54))</f>
+        <v>0.66332495807107994</v>
       </c>
     </row>
     <row r="55" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C55" s="20"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="15" t="s">
         <v>2</v>
       </c>
@@ -11959,16 +11959,16 @@
         <v>14</v>
       </c>
       <c r="O55" s="18">
-        <f t="shared" ref="O55:O56" si="10">AVERAGE(E55:N55)</f>
+        <f t="shared" ref="O55:O56" si="12">AVERAGE(E55:N55)</f>
         <v>14.2</v>
       </c>
       <c r="P55" s="17">
-        <f t="shared" ref="P55:P56" si="11">VAR(E55:N55)</f>
-        <v>0.39999999999999997</v>
+        <f t="shared" si="11"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="56" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C56" s="21"/>
+      <c r="C56" s="38"/>
       <c r="D56" s="15" t="s">
         <v>3</v>
       </c>
@@ -12003,80 +12003,80 @@
         <v>16</v>
       </c>
       <c r="O56" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="P56" s="17">
         <f t="shared" si="11"/>
-        <v>0.66666666666666663</v>
+        <v>0.7745966692414834</v>
       </c>
     </row>
     <row r="57" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="24"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="21"/>
     </row>
     <row r="59" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C59" s="25"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="27" t="s">
+      <c r="C59" s="34"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="30" t="s">
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P59" s="33" t="s">
+      <c r="P59" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="36">
+      <c r="D60" s="26"/>
+      <c r="E60" s="31">
         <v>200000</v>
       </c>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="34"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="26"/>
     </row>
     <row r="61" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="35"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="12">
         <v>1</v>
       </c>
@@ -12107,11 +12107,11 @@
       <c r="N61" s="3">
         <v>10</v>
       </c>
-      <c r="O61" s="32"/>
-      <c r="P61" s="35"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="27"/>
     </row>
     <row r="62" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="15" t="s">
@@ -12152,12 +12152,12 @@
         <v>8.5</v>
       </c>
       <c r="P62" s="17">
-        <f>VAR(E62:N62)</f>
-        <v>0.27777777777777779</v>
+        <f t="shared" ref="P62:P64" si="13">SQRT(_xlfn.VAR.P(E62:N62))</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C63" s="20"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="15" t="s">
         <v>2</v>
       </c>
@@ -12192,16 +12192,16 @@
         <v>29</v>
       </c>
       <c r="O63" s="18">
-        <f t="shared" ref="O63:O64" si="12">AVERAGE(E63:N63)</f>
+        <f t="shared" ref="O63:O64" si="14">AVERAGE(E63:N63)</f>
         <v>28.6</v>
       </c>
       <c r="P63" s="17">
-        <f t="shared" ref="P63:P64" si="13">VAR(E63:N63)</f>
-        <v>0.48888888888888893</v>
+        <f t="shared" si="13"/>
+        <v>0.66332495807108005</v>
       </c>
     </row>
     <row r="64" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C64" s="21"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="15" t="s">
         <v>3</v>
       </c>
@@ -12236,80 +12236,80 @@
         <v>32</v>
       </c>
       <c r="O64" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>31.9</v>
       </c>
       <c r="P64" s="17">
         <f t="shared" si="13"/>
-        <v>0.32222222222222219</v>
+        <v>0.53851648071345037</v>
       </c>
     </row>
     <row r="65" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="24"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="21"/>
     </row>
     <row r="67" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C67" s="25"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="27" t="s">
+      <c r="C67" s="34"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="30" t="s">
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P67" s="33" t="s">
+      <c r="P67" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="36">
+      <c r="D68" s="26"/>
+      <c r="E68" s="31">
         <v>500000</v>
       </c>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="31"/>
-      <c r="P68" s="34"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="26"/>
     </row>
     <row r="69" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="35"/>
+      <c r="D69" s="27"/>
       <c r="E69" s="12">
         <v>1</v>
       </c>
@@ -12340,11 +12340,11 @@
       <c r="N69" s="3">
         <v>10</v>
       </c>
-      <c r="O69" s="32"/>
-      <c r="P69" s="35"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="27"/>
     </row>
     <row r="70" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D70" s="15" t="s">
@@ -12385,12 +12385,12 @@
         <v>20</v>
       </c>
       <c r="P70" s="17">
-        <f>VAR(E70:N70)</f>
-        <v>0.22222222222222221</v>
+        <f t="shared" ref="P70:P72" si="15">SQRT(_xlfn.VAR.P(E70:N70))</f>
+        <v>0.44721359549995793</v>
       </c>
     </row>
     <row r="71" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C71" s="20"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="15" t="s">
         <v>2</v>
       </c>
@@ -12425,16 +12425,16 @@
         <v>72</v>
       </c>
       <c r="O71" s="18">
-        <f t="shared" ref="O71:O72" si="14">AVERAGE(E71:N71)</f>
+        <f t="shared" ref="O71:O72" si="16">AVERAGE(E71:N71)</f>
         <v>75.900000000000006</v>
       </c>
       <c r="P71" s="17">
-        <f t="shared" ref="P71:P72" si="15">VAR(E71:N71)</f>
-        <v>28.544444444444437</v>
+        <f t="shared" si="15"/>
+        <v>5.0685303589896735</v>
       </c>
     </row>
     <row r="72" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C72" s="21"/>
+      <c r="C72" s="38"/>
       <c r="D72" s="15" t="s">
         <v>3</v>
       </c>
@@ -12469,80 +12469,80 @@
         <v>102</v>
       </c>
       <c r="O72" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>91.2</v>
       </c>
       <c r="P72" s="17">
         <f t="shared" si="15"/>
-        <v>73.51111111111112</v>
+        <v>8.1338797630651012</v>
       </c>
     </row>
     <row r="73" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="74" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="23"/>
-      <c r="P74" s="24"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="21"/>
     </row>
     <row r="75" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="27" t="s">
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="30" t="s">
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P75" s="33" t="s">
+      <c r="P75" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="34"/>
-      <c r="E76" s="36">
+      <c r="D76" s="26"/>
+      <c r="E76" s="31">
         <v>1000000</v>
       </c>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="31"/>
-      <c r="P76" s="34"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="32"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="26"/>
     </row>
     <row r="77" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="35"/>
+      <c r="D77" s="27"/>
       <c r="E77" s="12">
         <v>1</v>
       </c>
@@ -12573,11 +12573,11 @@
       <c r="N77" s="3">
         <v>10</v>
       </c>
-      <c r="O77" s="32"/>
-      <c r="P77" s="35"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="27"/>
     </row>
     <row r="78" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="15" t="s">
@@ -12618,12 +12618,12 @@
         <v>43.7</v>
       </c>
       <c r="P78" s="17">
-        <f>VAR(E78:N78)</f>
-        <v>5.1222222222222209</v>
+        <f t="shared" ref="P78:P80" si="17">SQRT(_xlfn.VAR.P(E78:N78))</f>
+        <v>2.1470910553583886</v>
       </c>
     </row>
     <row r="79" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C79" s="20"/>
+      <c r="C79" s="37"/>
       <c r="D79" s="15" t="s">
         <v>2</v>
       </c>
@@ -12658,16 +12658,16 @@
         <v>261</v>
       </c>
       <c r="O79" s="18">
-        <f t="shared" ref="O79:O80" si="16">AVERAGE(E79:N79)</f>
+        <f t="shared" ref="O79:O80" si="18">AVERAGE(E79:N79)</f>
         <v>200.1</v>
       </c>
       <c r="P79" s="17">
-        <f t="shared" ref="P79:P80" si="17">VAR(E79:N79)</f>
-        <v>1211.6555555555581</v>
+        <f t="shared" si="17"/>
+        <v>33.022568040659706</v>
       </c>
     </row>
     <row r="80" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C80" s="21"/>
+      <c r="C80" s="38"/>
       <c r="D80" s="15" t="s">
         <v>3</v>
       </c>
@@ -12702,13 +12702,1674 @@
         <v>182</v>
       </c>
       <c r="O80" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>211</v>
       </c>
       <c r="P80" s="17">
         <f t="shared" si="17"/>
-        <v>924.88888888888891</v>
-      </c>
+        <v>28.851343122981294</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="90">
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C74:P74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:N75"/>
+    <mergeCell ref="O75:O77"/>
+    <mergeCell ref="P75:P77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:N76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C66:P66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:N67"/>
+    <mergeCell ref="O67:O69"/>
+    <mergeCell ref="P67:P69"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:N68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C58:P58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:N59"/>
+    <mergeCell ref="O59:O61"/>
+    <mergeCell ref="P59:P61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:N60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C50:P50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:N51"/>
+    <mergeCell ref="O51:O53"/>
+    <mergeCell ref="P51:P53"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:N52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C42:P42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:N43"/>
+    <mergeCell ref="O43:O45"/>
+    <mergeCell ref="P43:P45"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:N44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C34:P34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:N35"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:N36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C26:P26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C10:P10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036A56A7-DAD0-4E30-B447-BF5756630DD8}">
+  <dimension ref="C1:P80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:P34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21"/>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="26"/>
+    </row>
+    <row r="5" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2">
+        <v>8</v>
+      </c>
+      <c r="M5" s="2">
+        <v>9</v>
+      </c>
+      <c r="N5" s="3">
+        <v>10</v>
+      </c>
+      <c r="O5" s="24"/>
+      <c r="P5" s="27"/>
+    </row>
+    <row r="6" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="37"/>
+      <c r="D7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="38"/>
+      <c r="D8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C12" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="31">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="26"/>
+    </row>
+    <row r="13" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2">
+        <v>6</v>
+      </c>
+      <c r="K13" s="2">
+        <v>7</v>
+      </c>
+      <c r="L13" s="2">
+        <v>8</v>
+      </c>
+      <c r="M13" s="2">
+        <v>9</v>
+      </c>
+      <c r="N13" s="3">
+        <v>10</v>
+      </c>
+      <c r="O13" s="24"/>
+      <c r="P13" s="27"/>
+    </row>
+    <row r="14" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="37"/>
+      <c r="D15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="38"/>
+      <c r="D16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="21"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="31">
+        <v>5000</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="26"/>
+    </row>
+    <row r="21" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2">
+        <v>6</v>
+      </c>
+      <c r="K21" s="2">
+        <v>7</v>
+      </c>
+      <c r="L21" s="2">
+        <v>8</v>
+      </c>
+      <c r="M21" s="2">
+        <v>9</v>
+      </c>
+      <c r="N21" s="3">
+        <v>10</v>
+      </c>
+      <c r="O21" s="24"/>
+      <c r="P21" s="27"/>
+    </row>
+    <row r="22" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="37"/>
+      <c r="D23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="38"/>
+      <c r="D24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="21"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="31">
+        <v>10000</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="26"/>
+    </row>
+    <row r="29" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="12">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3</v>
+      </c>
+      <c r="H29" s="2">
+        <v>4</v>
+      </c>
+      <c r="I29" s="2">
+        <v>5</v>
+      </c>
+      <c r="J29" s="2">
+        <v>6</v>
+      </c>
+      <c r="K29" s="2">
+        <v>7</v>
+      </c>
+      <c r="L29" s="2">
+        <v>8</v>
+      </c>
+      <c r="M29" s="2">
+        <v>9</v>
+      </c>
+      <c r="N29" s="3">
+        <v>10</v>
+      </c>
+      <c r="O29" s="24"/>
+      <c r="P29" s="27"/>
+    </row>
+    <row r="30" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="37"/>
+      <c r="D31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="38"/>
+      <c r="D32" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C36" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="31">
+        <v>20000</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="26"/>
+    </row>
+    <row r="37" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="12">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2">
+        <v>3</v>
+      </c>
+      <c r="H37" s="2">
+        <v>4</v>
+      </c>
+      <c r="I37" s="2">
+        <v>5</v>
+      </c>
+      <c r="J37" s="2">
+        <v>6</v>
+      </c>
+      <c r="K37" s="2">
+        <v>7</v>
+      </c>
+      <c r="L37" s="2">
+        <v>8</v>
+      </c>
+      <c r="M37" s="2">
+        <v>9</v>
+      </c>
+      <c r="N37" s="3">
+        <v>10</v>
+      </c>
+      <c r="O37" s="24"/>
+      <c r="P37" s="27"/>
+    </row>
+    <row r="38" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="7"/>
+    </row>
+    <row r="39" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="37"/>
+      <c r="D39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="7"/>
+    </row>
+    <row r="40" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="38"/>
+      <c r="D40" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="21"/>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C44" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="31">
+        <v>50000</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="26"/>
+    </row>
+    <row r="45" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="12">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2</v>
+      </c>
+      <c r="G45" s="2">
+        <v>3</v>
+      </c>
+      <c r="H45" s="2">
+        <v>4</v>
+      </c>
+      <c r="I45" s="2">
+        <v>5</v>
+      </c>
+      <c r="J45" s="2">
+        <v>6</v>
+      </c>
+      <c r="K45" s="2">
+        <v>7</v>
+      </c>
+      <c r="L45" s="2">
+        <v>8</v>
+      </c>
+      <c r="M45" s="2">
+        <v>9</v>
+      </c>
+      <c r="N45" s="3">
+        <v>10</v>
+      </c>
+      <c r="O45" s="24"/>
+      <c r="P45" s="27"/>
+    </row>
+    <row r="46" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="7"/>
+    </row>
+    <row r="47" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="37"/>
+      <c r="D47" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="7"/>
+    </row>
+    <row r="48" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="38"/>
+      <c r="D48" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="21"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C51" s="34"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P51" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C52" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52" s="31">
+        <v>100000</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="26"/>
+    </row>
+    <row r="53" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="12">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2</v>
+      </c>
+      <c r="G53" s="2">
+        <v>3</v>
+      </c>
+      <c r="H53" s="2">
+        <v>4</v>
+      </c>
+      <c r="I53" s="2">
+        <v>5</v>
+      </c>
+      <c r="J53" s="2">
+        <v>6</v>
+      </c>
+      <c r="K53" s="2">
+        <v>7</v>
+      </c>
+      <c r="L53" s="2">
+        <v>8</v>
+      </c>
+      <c r="M53" s="2">
+        <v>9</v>
+      </c>
+      <c r="N53" s="3">
+        <v>10</v>
+      </c>
+      <c r="O53" s="24"/>
+      <c r="P53" s="27"/>
+    </row>
+    <row r="54" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="7"/>
+    </row>
+    <row r="55" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="37"/>
+      <c r="D55" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="7"/>
+    </row>
+    <row r="56" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C56" s="38"/>
+      <c r="D56" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="21"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C59" s="34"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C60" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="26"/>
+      <c r="E60" s="31">
+        <v>200000</v>
+      </c>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="26"/>
+    </row>
+    <row r="61" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="27"/>
+      <c r="E61" s="12">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>2</v>
+      </c>
+      <c r="G61" s="2">
+        <v>3</v>
+      </c>
+      <c r="H61" s="2">
+        <v>4</v>
+      </c>
+      <c r="I61" s="2">
+        <v>5</v>
+      </c>
+      <c r="J61" s="2">
+        <v>6</v>
+      </c>
+      <c r="K61" s="2">
+        <v>7</v>
+      </c>
+      <c r="L61" s="2">
+        <v>8</v>
+      </c>
+      <c r="M61" s="2">
+        <v>9</v>
+      </c>
+      <c r="N61" s="3">
+        <v>10</v>
+      </c>
+      <c r="O61" s="24"/>
+      <c r="P61" s="27"/>
+    </row>
+    <row r="62" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="7"/>
+    </row>
+    <row r="63" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="37"/>
+      <c r="D63" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="7"/>
+    </row>
+    <row r="64" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C64" s="38"/>
+      <c r="D64" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="11"/>
+    </row>
+    <row r="65" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C66" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="21"/>
+    </row>
+    <row r="67" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C67" s="34"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P67" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C68" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="26"/>
+      <c r="E68" s="31">
+        <v>500000</v>
+      </c>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="26"/>
+    </row>
+    <row r="69" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C69" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="27"/>
+      <c r="E69" s="12">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2</v>
+      </c>
+      <c r="G69" s="2">
+        <v>3</v>
+      </c>
+      <c r="H69" s="2">
+        <v>4</v>
+      </c>
+      <c r="I69" s="2">
+        <v>5</v>
+      </c>
+      <c r="J69" s="2">
+        <v>6</v>
+      </c>
+      <c r="K69" s="2">
+        <v>7</v>
+      </c>
+      <c r="L69" s="2">
+        <v>8</v>
+      </c>
+      <c r="M69" s="2">
+        <v>9</v>
+      </c>
+      <c r="N69" s="3">
+        <v>10</v>
+      </c>
+      <c r="O69" s="24"/>
+      <c r="P69" s="27"/>
+    </row>
+    <row r="70" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C70" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="7"/>
+    </row>
+    <row r="71" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C71" s="37"/>
+      <c r="D71" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="7"/>
+    </row>
+    <row r="72" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C72" s="38"/>
+      <c r="D72" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="11"/>
+    </row>
+    <row r="73" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C74" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="21"/>
+    </row>
+    <row r="75" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P75" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C76" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="26"/>
+      <c r="E76" s="31">
+        <v>1000000</v>
+      </c>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="32"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="26"/>
+    </row>
+    <row r="77" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C77" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="27"/>
+      <c r="E77" s="12">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
+        <v>2</v>
+      </c>
+      <c r="G77" s="2">
+        <v>3</v>
+      </c>
+      <c r="H77" s="2">
+        <v>4</v>
+      </c>
+      <c r="I77" s="2">
+        <v>5</v>
+      </c>
+      <c r="J77" s="2">
+        <v>6</v>
+      </c>
+      <c r="K77" s="2">
+        <v>7</v>
+      </c>
+      <c r="L77" s="2">
+        <v>8</v>
+      </c>
+      <c r="M77" s="2">
+        <v>9</v>
+      </c>
+      <c r="N77" s="3">
+        <v>10</v>
+      </c>
+      <c r="O77" s="24"/>
+      <c r="P77" s="27"/>
+    </row>
+    <row r="78" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C78" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="13"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="7"/>
+    </row>
+    <row r="79" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C79" s="37"/>
+      <c r="D79" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="7"/>
+    </row>
+    <row r="80" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C80" s="38"/>
+      <c r="D80" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="14"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -12804,1666 +14465,5 @@
     <mergeCell ref="C77:D77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036A56A7-DAD0-4E30-B447-BF5756630DD8}">
-  <dimension ref="C1:P80"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:P34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
-    </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C4" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="36">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="34"/>
-    </row>
-    <row r="5" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>5</v>
-      </c>
-      <c r="J5" s="2">
-        <v>6</v>
-      </c>
-      <c r="K5" s="2">
-        <v>7</v>
-      </c>
-      <c r="L5" s="2">
-        <v>8</v>
-      </c>
-      <c r="M5" s="2">
-        <v>9</v>
-      </c>
-      <c r="N5" s="3">
-        <v>10</v>
-      </c>
-      <c r="O5" s="32"/>
-      <c r="P5" s="35"/>
-    </row>
-    <row r="6" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="20"/>
-      <c r="D7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="21"/>
-      <c r="D8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C12" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="36">
-        <v>2000</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="34"/>
-    </row>
-    <row r="13" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4</v>
-      </c>
-      <c r="I13" s="2">
-        <v>5</v>
-      </c>
-      <c r="J13" s="2">
-        <v>6</v>
-      </c>
-      <c r="K13" s="2">
-        <v>7</v>
-      </c>
-      <c r="L13" s="2">
-        <v>8</v>
-      </c>
-      <c r="M13" s="2">
-        <v>9</v>
-      </c>
-      <c r="N13" s="3">
-        <v>10</v>
-      </c>
-      <c r="O13" s="32"/>
-      <c r="P13" s="35"/>
-    </row>
-    <row r="14" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="20"/>
-      <c r="D15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="21"/>
-      <c r="D16" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="P19" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C20" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="36">
-        <v>5000</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="34"/>
-    </row>
-    <row r="21" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="12">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2">
-        <v>3</v>
-      </c>
-      <c r="H21" s="2">
-        <v>4</v>
-      </c>
-      <c r="I21" s="2">
-        <v>5</v>
-      </c>
-      <c r="J21" s="2">
-        <v>6</v>
-      </c>
-      <c r="K21" s="2">
-        <v>7</v>
-      </c>
-      <c r="L21" s="2">
-        <v>8</v>
-      </c>
-      <c r="M21" s="2">
-        <v>9</v>
-      </c>
-      <c r="N21" s="3">
-        <v>10</v>
-      </c>
-      <c r="O21" s="32"/>
-      <c r="P21" s="35"/>
-    </row>
-    <row r="22" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="20"/>
-      <c r="D23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="21"/>
-      <c r="D24" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="11"/>
-    </row>
-    <row r="25" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="24"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="P27" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C28" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="36">
-        <v>10000</v>
-      </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="34"/>
-    </row>
-    <row r="29" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="12">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2</v>
-      </c>
-      <c r="G29" s="2">
-        <v>3</v>
-      </c>
-      <c r="H29" s="2">
-        <v>4</v>
-      </c>
-      <c r="I29" s="2">
-        <v>5</v>
-      </c>
-      <c r="J29" s="2">
-        <v>6</v>
-      </c>
-      <c r="K29" s="2">
-        <v>7</v>
-      </c>
-      <c r="L29" s="2">
-        <v>8</v>
-      </c>
-      <c r="M29" s="2">
-        <v>9</v>
-      </c>
-      <c r="N29" s="3">
-        <v>10</v>
-      </c>
-      <c r="O29" s="32"/>
-      <c r="P29" s="35"/>
-    </row>
-    <row r="30" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="7"/>
-    </row>
-    <row r="31" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="20"/>
-      <c r="D31" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="7"/>
-    </row>
-    <row r="32" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="21"/>
-      <c r="D32" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="11"/>
-    </row>
-    <row r="33" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="24"/>
-    </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="P35" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C36" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="36">
-        <v>20000</v>
-      </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="34"/>
-    </row>
-    <row r="37" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="12">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2">
-        <v>2</v>
-      </c>
-      <c r="G37" s="2">
-        <v>3</v>
-      </c>
-      <c r="H37" s="2">
-        <v>4</v>
-      </c>
-      <c r="I37" s="2">
-        <v>5</v>
-      </c>
-      <c r="J37" s="2">
-        <v>6</v>
-      </c>
-      <c r="K37" s="2">
-        <v>7</v>
-      </c>
-      <c r="L37" s="2">
-        <v>8</v>
-      </c>
-      <c r="M37" s="2">
-        <v>9</v>
-      </c>
-      <c r="N37" s="3">
-        <v>10</v>
-      </c>
-      <c r="O37" s="32"/>
-      <c r="P37" s="35"/>
-    </row>
-    <row r="38" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="7"/>
-    </row>
-    <row r="39" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="20"/>
-      <c r="D39" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="7"/>
-    </row>
-    <row r="40" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="21"/>
-      <c r="D40" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="11"/>
-    </row>
-    <row r="41" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="24"/>
-    </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C44" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="36">
-        <v>50000</v>
-      </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="34"/>
-    </row>
-    <row r="45" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="12">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>2</v>
-      </c>
-      <c r="G45" s="2">
-        <v>3</v>
-      </c>
-      <c r="H45" s="2">
-        <v>4</v>
-      </c>
-      <c r="I45" s="2">
-        <v>5</v>
-      </c>
-      <c r="J45" s="2">
-        <v>6</v>
-      </c>
-      <c r="K45" s="2">
-        <v>7</v>
-      </c>
-      <c r="L45" s="2">
-        <v>8</v>
-      </c>
-      <c r="M45" s="2">
-        <v>9</v>
-      </c>
-      <c r="N45" s="3">
-        <v>10</v>
-      </c>
-      <c r="O45" s="32"/>
-      <c r="P45" s="35"/>
-    </row>
-    <row r="46" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="7"/>
-    </row>
-    <row r="47" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="20"/>
-      <c r="D47" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="7"/>
-    </row>
-    <row r="48" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="21"/>
-      <c r="D48" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="11"/>
-    </row>
-    <row r="49" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="50" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="24"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C51" s="25"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="P51" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C52" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="36">
-        <v>100000</v>
-      </c>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="34"/>
-    </row>
-    <row r="53" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="12">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2">
-        <v>2</v>
-      </c>
-      <c r="G53" s="2">
-        <v>3</v>
-      </c>
-      <c r="H53" s="2">
-        <v>4</v>
-      </c>
-      <c r="I53" s="2">
-        <v>5</v>
-      </c>
-      <c r="J53" s="2">
-        <v>6</v>
-      </c>
-      <c r="K53" s="2">
-        <v>7</v>
-      </c>
-      <c r="L53" s="2">
-        <v>8</v>
-      </c>
-      <c r="M53" s="2">
-        <v>9</v>
-      </c>
-      <c r="N53" s="3">
-        <v>10</v>
-      </c>
-      <c r="O53" s="32"/>
-      <c r="P53" s="35"/>
-    </row>
-    <row r="54" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C54" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="7"/>
-    </row>
-    <row r="55" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C55" s="20"/>
-      <c r="D55" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="7"/>
-    </row>
-    <row r="56" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C56" s="21"/>
-      <c r="D56" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="11"/>
-    </row>
-    <row r="57" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C58" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="24"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C59" s="25"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C60" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="36">
-        <v>200000</v>
-      </c>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="34"/>
-    </row>
-    <row r="61" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C61" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="35"/>
-      <c r="E61" s="12">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2">
-        <v>2</v>
-      </c>
-      <c r="G61" s="2">
-        <v>3</v>
-      </c>
-      <c r="H61" s="2">
-        <v>4</v>
-      </c>
-      <c r="I61" s="2">
-        <v>5</v>
-      </c>
-      <c r="J61" s="2">
-        <v>6</v>
-      </c>
-      <c r="K61" s="2">
-        <v>7</v>
-      </c>
-      <c r="L61" s="2">
-        <v>8</v>
-      </c>
-      <c r="M61" s="2">
-        <v>9</v>
-      </c>
-      <c r="N61" s="3">
-        <v>10</v>
-      </c>
-      <c r="O61" s="32"/>
-      <c r="P61" s="35"/>
-    </row>
-    <row r="62" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C62" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="7"/>
-    </row>
-    <row r="63" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C63" s="20"/>
-      <c r="D63" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="7"/>
-    </row>
-    <row r="64" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C64" s="21"/>
-      <c r="D64" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="11"/>
-    </row>
-    <row r="65" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C66" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="24"/>
-    </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C67" s="25"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="P67" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C68" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="36">
-        <v>500000</v>
-      </c>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="31"/>
-      <c r="P68" s="34"/>
-    </row>
-    <row r="69" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C69" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="12">
-        <v>1</v>
-      </c>
-      <c r="F69" s="2">
-        <v>2</v>
-      </c>
-      <c r="G69" s="2">
-        <v>3</v>
-      </c>
-      <c r="H69" s="2">
-        <v>4</v>
-      </c>
-      <c r="I69" s="2">
-        <v>5</v>
-      </c>
-      <c r="J69" s="2">
-        <v>6</v>
-      </c>
-      <c r="K69" s="2">
-        <v>7</v>
-      </c>
-      <c r="L69" s="2">
-        <v>8</v>
-      </c>
-      <c r="M69" s="2">
-        <v>9</v>
-      </c>
-      <c r="N69" s="3">
-        <v>10</v>
-      </c>
-      <c r="O69" s="32"/>
-      <c r="P69" s="35"/>
-    </row>
-    <row r="70" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C70" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="7"/>
-    </row>
-    <row r="71" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C71" s="20"/>
-      <c r="D71" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="7"/>
-    </row>
-    <row r="72" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C72" s="21"/>
-      <c r="D72" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="11"/>
-    </row>
-    <row r="73" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C74" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="23"/>
-      <c r="P74" s="24"/>
-    </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="P75" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C76" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="34"/>
-      <c r="E76" s="36">
-        <v>1000000</v>
-      </c>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="31"/>
-      <c r="P76" s="34"/>
-    </row>
-    <row r="77" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C77" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="35"/>
-      <c r="E77" s="12">
-        <v>1</v>
-      </c>
-      <c r="F77" s="2">
-        <v>2</v>
-      </c>
-      <c r="G77" s="2">
-        <v>3</v>
-      </c>
-      <c r="H77" s="2">
-        <v>4</v>
-      </c>
-      <c r="I77" s="2">
-        <v>5</v>
-      </c>
-      <c r="J77" s="2">
-        <v>6</v>
-      </c>
-      <c r="K77" s="2">
-        <v>7</v>
-      </c>
-      <c r="L77" s="2">
-        <v>8</v>
-      </c>
-      <c r="M77" s="2">
-        <v>9</v>
-      </c>
-      <c r="N77" s="3">
-        <v>10</v>
-      </c>
-      <c r="O77" s="32"/>
-      <c r="P77" s="35"/>
-    </row>
-    <row r="78" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C78" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="7"/>
-    </row>
-    <row r="79" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C79" s="20"/>
-      <c r="D79" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="7"/>
-    </row>
-    <row r="80" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C80" s="21"/>
-      <c r="D80" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C74:P74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:N75"/>
-    <mergeCell ref="O75:O77"/>
-    <mergeCell ref="P75:P77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:N76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C66:P66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:N67"/>
-    <mergeCell ref="O67:O69"/>
-    <mergeCell ref="P67:P69"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:N68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C58:P58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:N59"/>
-    <mergeCell ref="O59:O61"/>
-    <mergeCell ref="P59:P61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:N60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C50:P50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:N51"/>
-    <mergeCell ref="O51:O53"/>
-    <mergeCell ref="P51:P53"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:N52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C42:P42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:N43"/>
-    <mergeCell ref="O43:O45"/>
-    <mergeCell ref="P43:P45"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:N44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C34:P34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:N35"/>
-    <mergeCell ref="O35:O37"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:N36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C26:P26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="O27:O29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C10:P10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:N12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:N4"/>
-    <mergeCell ref="C5:D5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>